--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H2">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I2">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J2">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N2">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O2">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P2">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q2">
-        <v>150.2139118772578</v>
+        <v>153.9429486521225</v>
       </c>
       <c r="R2">
-        <v>150.2139118772578</v>
+        <v>615.77179460849</v>
       </c>
       <c r="S2">
-        <v>0.0605725055800382</v>
+        <v>0.05613773964735828</v>
       </c>
       <c r="T2">
-        <v>0.0605725055800382</v>
+        <v>0.03332687168283033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H3">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I3">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J3">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N3">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P3">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q3">
-        <v>25.93505130094022</v>
+        <v>27.20834143652733</v>
       </c>
       <c r="R3">
-        <v>25.93505130094022</v>
+        <v>163.250048619164</v>
       </c>
       <c r="S3">
-        <v>0.01045809286245356</v>
+        <v>0.009921953562496885</v>
       </c>
       <c r="T3">
-        <v>0.01045809286245356</v>
+        <v>0.008835437852436638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H4">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I4">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J4">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N4">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O4">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P4">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q4">
-        <v>54.76839346127547</v>
+        <v>62.977784584182</v>
       </c>
       <c r="R4">
-        <v>54.76839346127547</v>
+        <v>377.866707505092</v>
       </c>
       <c r="S4">
-        <v>0.02208489731133281</v>
+        <v>0.02296584874792496</v>
       </c>
       <c r="T4">
-        <v>0.02208489731133281</v>
+        <v>0.02045094527631382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H5">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I5">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J5">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N5">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O5">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P5">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q5">
-        <v>79.72550886526822</v>
+        <v>81.19761212772082</v>
       </c>
       <c r="R5">
-        <v>79.72550886526822</v>
+        <v>487.185672766325</v>
       </c>
       <c r="S5">
-        <v>0.03214864568974703</v>
+        <v>0.02960999805138087</v>
       </c>
       <c r="T5">
-        <v>0.03214864568974703</v>
+        <v>0.026367518850583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H6">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I6">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J6">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N6">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O6">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P6">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q6">
-        <v>72.33547303650937</v>
+        <v>75.32396411083916</v>
       </c>
       <c r="R6">
-        <v>72.33547303650937</v>
+        <v>451.943784665035</v>
       </c>
       <c r="S6">
-        <v>0.02916867545343532</v>
+        <v>0.02746807907400017</v>
       </c>
       <c r="T6">
-        <v>0.02916867545343532</v>
+        <v>0.02446015334132139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.46009803527541</v>
+        <v>7.5814115</v>
       </c>
       <c r="H7">
-        <v>7.46009803527541</v>
+        <v>15.162823</v>
       </c>
       <c r="I7">
-        <v>0.1825140611469851</v>
+        <v>0.1727528937976077</v>
       </c>
       <c r="J7">
-        <v>0.1825140611469851</v>
+        <v>0.129261602442644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N7">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O7">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P7">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q7">
-        <v>69.63874960721606</v>
+        <v>73.07860905609876</v>
       </c>
       <c r="R7">
-        <v>69.63874960721606</v>
+        <v>292.314436224395</v>
       </c>
       <c r="S7">
-        <v>0.02808124424997819</v>
+        <v>0.02664927471444654</v>
       </c>
       <c r="T7">
-        <v>0.02808124424997819</v>
+        <v>0.01582067543915885</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H8">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I8">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J8">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N8">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O8">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P8">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q8">
-        <v>153.4584957632619</v>
+        <v>163.4499952774783</v>
       </c>
       <c r="R8">
-        <v>153.4584957632619</v>
+        <v>980.69997166487</v>
       </c>
       <c r="S8">
-        <v>0.06188085693767061</v>
+        <v>0.05960463509753949</v>
       </c>
       <c r="T8">
-        <v>0.06188085693767061</v>
+        <v>0.05307755633044357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H9">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I9">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J9">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N9">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P9">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q9">
-        <v>26.49524208807903</v>
+        <v>28.88864555503689</v>
       </c>
       <c r="R9">
-        <v>26.49524208807903</v>
+        <v>259.997809995332</v>
       </c>
       <c r="S9">
-        <v>0.01068398511940762</v>
+        <v>0.01053470312952275</v>
       </c>
       <c r="T9">
-        <v>0.01068398511940762</v>
+        <v>0.01407163128840696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H10">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I10">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J10">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N10">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O10">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P10">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q10">
-        <v>55.95137741173665</v>
+        <v>66.867100331644</v>
       </c>
       <c r="R10">
-        <v>55.95137741173665</v>
+        <v>601.803902984796</v>
       </c>
       <c r="S10">
-        <v>0.02256192571066614</v>
+        <v>0.02438414946743883</v>
       </c>
       <c r="T10">
-        <v>0.02256192571066614</v>
+        <v>0.03257089985057305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H11">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I11">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J11">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N11">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O11">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P11">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q11">
-        <v>81.44756042583936</v>
+        <v>86.21212881149721</v>
       </c>
       <c r="R11">
-        <v>81.44756042583936</v>
+        <v>775.9091593034749</v>
       </c>
       <c r="S11">
-        <v>0.03284304860128987</v>
+        <v>0.03143862115179524</v>
       </c>
       <c r="T11">
-        <v>0.03284304860128987</v>
+        <v>0.04199384449896845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H12">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I12">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J12">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N12">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O12">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P12">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q12">
-        <v>73.89790162429901</v>
+        <v>79.9757422213561</v>
       </c>
       <c r="R12">
-        <v>73.89790162429901</v>
+        <v>719.7816799922049</v>
       </c>
       <c r="S12">
-        <v>0.02979871173416031</v>
+        <v>0.02916442379619722</v>
       </c>
       <c r="T12">
-        <v>0.02979871173416031</v>
+        <v>0.03895610662713767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.6212343346419</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H13">
-        <v>7.6212343346419</v>
+        <v>24.148849</v>
       </c>
       <c r="I13">
-        <v>0.1864563203849347</v>
+        <v>0.1834215852211454</v>
       </c>
       <c r="J13">
-        <v>0.1864563203849347</v>
+        <v>0.2058666066922658</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N13">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O13">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P13">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q13">
-        <v>71.14292962618576</v>
+        <v>77.59172089198083</v>
       </c>
       <c r="R13">
-        <v>71.14292962618576</v>
+        <v>465.550325351885</v>
       </c>
       <c r="S13">
-        <v>0.02868779228174021</v>
+        <v>0.02829505257865187</v>
       </c>
       <c r="T13">
-        <v>0.02868779228174021</v>
+        <v>0.02519656809673605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H14">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I14">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J14">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N14">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O14">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P14">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q14">
-        <v>149.021959193475</v>
+        <v>153.769612330625</v>
       </c>
       <c r="R14">
-        <v>149.021959193475</v>
+        <v>922.61767398375</v>
       </c>
       <c r="S14">
-        <v>0.06009186061388772</v>
+        <v>0.05607452980648635</v>
       </c>
       <c r="T14">
-        <v>0.06009186061388772</v>
+        <v>0.04993401955462654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H15">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I15">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J15">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N15">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P15">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q15">
-        <v>25.72925575500264</v>
+        <v>27.17770545183333</v>
       </c>
       <c r="R15">
-        <v>25.72925575500264</v>
+        <v>244.5993490665</v>
       </c>
       <c r="S15">
-        <v>0.01037510752708172</v>
+        <v>0.00991078166441613</v>
       </c>
       <c r="T15">
-        <v>0.01037510752708172</v>
+        <v>0.01323823402016322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H16">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I16">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J16">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N16">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O16">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P16">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q16">
-        <v>54.3338043293049</v>
+        <v>62.9068730055</v>
       </c>
       <c r="R16">
-        <v>54.3338043293049</v>
+        <v>566.1618570495</v>
       </c>
       <c r="S16">
-        <v>0.02190965287296934</v>
+        <v>0.02293998971523208</v>
       </c>
       <c r="T16">
-        <v>0.02190965287296934</v>
+        <v>0.03064187695313036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H17">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I17">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J17">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N17">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O17">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P17">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q17">
-        <v>79.09288414316156</v>
+        <v>81.10618543020831</v>
       </c>
       <c r="R17">
-        <v>79.09288414316156</v>
+        <v>729.9556688718749</v>
       </c>
       <c r="S17">
-        <v>0.03189354505338794</v>
+        <v>0.02957665785498531</v>
       </c>
       <c r="T17">
-        <v>0.03189354505338794</v>
+        <v>0.03950674442000846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H18">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I18">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J18">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N18">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O18">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P18">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q18">
-        <v>71.76148850910408</v>
+        <v>75.23915100979166</v>
       </c>
       <c r="R18">
-        <v>71.76148850910408</v>
+        <v>677.152359088125</v>
       </c>
       <c r="S18">
-        <v>0.02893722098590557</v>
+        <v>0.02743715063052823</v>
       </c>
       <c r="T18">
-        <v>0.02893722098590557</v>
+        <v>0.03664891763255282</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.40090189449655</v>
+        <v>7.572875</v>
       </c>
       <c r="H19">
-        <v>7.40090189449655</v>
+        <v>22.718625</v>
       </c>
       <c r="I19">
-        <v>0.1810658056405976</v>
+        <v>0.1725583778980416</v>
       </c>
       <c r="J19">
-        <v>0.1810658056405976</v>
+        <v>0.193674085148492</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N19">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O19">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P19">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q19">
-        <v>69.08616367524574</v>
+        <v>72.9963241746875</v>
       </c>
       <c r="R19">
-        <v>69.08616367524574</v>
+        <v>437.977945048125</v>
       </c>
       <c r="S19">
-        <v>0.02785841858736531</v>
+        <v>0.02661926822639351</v>
       </c>
       <c r="T19">
-        <v>0.02785841858736531</v>
+        <v>0.02370429256801059</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H20">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I20">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J20">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N20">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O20">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P20">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q20">
-        <v>105.8389795994985</v>
+        <v>119.2900165207933</v>
       </c>
       <c r="R20">
-        <v>105.8389795994985</v>
+        <v>715.7400991247599</v>
       </c>
       <c r="S20">
-        <v>0.04267868469875578</v>
+        <v>0.04350099792557815</v>
       </c>
       <c r="T20">
-        <v>0.04267868469875578</v>
+        <v>0.03873736772395234</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H21">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I21">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J21">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N21">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P21">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q21">
-        <v>18.27353626070995</v>
+        <v>21.08367760839289</v>
       </c>
       <c r="R21">
-        <v>18.27353626070995</v>
+        <v>189.753098475536</v>
       </c>
       <c r="S21">
-        <v>0.00736865090114508</v>
+        <v>0.007688497685356495</v>
       </c>
       <c r="T21">
-        <v>0.00736865090114508</v>
+        <v>0.01026983895606066</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H22">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I22">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J22">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N22">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O22">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P22">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q22">
-        <v>38.58917463637962</v>
+        <v>48.80133211211199</v>
       </c>
       <c r="R22">
-        <v>38.58917463637962</v>
+        <v>439.211989009008</v>
       </c>
       <c r="S22">
-        <v>0.01556076242725863</v>
+        <v>0.0177961803417505</v>
       </c>
       <c r="T22">
-        <v>0.01556076242725863</v>
+        <v>0.02377108163677829</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H23">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I23">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J23">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N23">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O23">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P23">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q23">
-        <v>56.17366860964009</v>
+        <v>62.91983216492221</v>
       </c>
       <c r="R23">
-        <v>56.17366860964009</v>
+        <v>566.2784894842999</v>
       </c>
       <c r="S23">
-        <v>0.02265156277994373</v>
+        <v>0.02294471547840644</v>
       </c>
       <c r="T23">
-        <v>0.02265156277994373</v>
+        <v>0.03064818934714169</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H24">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I24">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J24">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N24">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O24">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P24">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q24">
-        <v>50.96673510032118</v>
+        <v>58.3683566013711</v>
       </c>
       <c r="R24">
-        <v>50.96673510032118</v>
+        <v>525.3152094123399</v>
       </c>
       <c r="S24">
-        <v>0.02055191032361316</v>
+        <v>0.02128494767198784</v>
       </c>
       <c r="T24">
-        <v>0.02055191032361316</v>
+        <v>0.02843117000552986</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.25629852720261</v>
+        <v>5.874817333333333</v>
       </c>
       <c r="H25">
-        <v>5.25629852720261</v>
+        <v>17.624452</v>
       </c>
       <c r="I25">
-        <v>0.128597290044225</v>
+        <v>0.1338657972681839</v>
       </c>
       <c r="J25">
-        <v>0.128597290044225</v>
+        <v>0.1502467520522703</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N25">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O25">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P25">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q25">
-        <v>49.06665505812319</v>
+        <v>56.62843643016333</v>
       </c>
       <c r="R25">
-        <v>49.06665505812319</v>
+        <v>339.77061858098</v>
       </c>
       <c r="S25">
-        <v>0.01978571891350861</v>
+        <v>0.02065045816510452</v>
       </c>
       <c r="T25">
-        <v>0.01978571891350861</v>
+        <v>0.01838910438280747</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H26">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I26">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J26">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N26">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O26">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P26">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q26">
-        <v>141.9308469540099</v>
+        <v>163.139540548005</v>
       </c>
       <c r="R26">
-        <v>141.9308469540099</v>
+        <v>978.83724328803</v>
       </c>
       <c r="S26">
-        <v>0.0572324288187511</v>
+        <v>0.05949142285282116</v>
       </c>
       <c r="T26">
-        <v>0.0572324288187511</v>
+        <v>0.05297674153161963</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H27">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I27">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J27">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N27">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O27">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P27">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q27">
-        <v>24.50494598626745</v>
+        <v>28.833774849012</v>
       </c>
       <c r="R27">
-        <v>24.50494598626745</v>
+        <v>259.503973641108</v>
       </c>
       <c r="S27">
-        <v>0.009881414836627023</v>
+        <v>0.01051469365564907</v>
       </c>
       <c r="T27">
-        <v>0.009881414836627023</v>
+        <v>0.01404490382061184</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H28">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I28">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J28">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N28">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O28">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P28">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q28">
-        <v>51.74836586787639</v>
+        <v>66.74009385783599</v>
       </c>
       <c r="R28">
-        <v>51.74836586787639</v>
+        <v>600.660844720524</v>
       </c>
       <c r="S28">
-        <v>0.02086709640350139</v>
+        <v>0.02433783454088591</v>
       </c>
       <c r="T28">
-        <v>0.02086709640350139</v>
+        <v>0.03250903512011132</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H29">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I29">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J29">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N29">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O29">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P29">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q29">
-        <v>75.32930109917531</v>
+        <v>86.04837864997498</v>
       </c>
       <c r="R29">
-        <v>75.32930109917531</v>
+        <v>774.4354078497749</v>
       </c>
       <c r="S29">
-        <v>0.03037591161928184</v>
+        <v>0.03137890705631224</v>
       </c>
       <c r="T29">
-        <v>0.03037591161928184</v>
+        <v>0.0419140819537855</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H30">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I30">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J30">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N30">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O30">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P30">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q30">
-        <v>68.34676512039543</v>
+        <v>79.82383736890498</v>
       </c>
       <c r="R30">
-        <v>68.34676512039543</v>
+        <v>718.414536320145</v>
       </c>
       <c r="S30">
-        <v>0.02756026229458373</v>
+        <v>0.02910902928067874</v>
       </c>
       <c r="T30">
-        <v>0.02756026229458373</v>
+        <v>0.03888211392053813</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.04873482937959</v>
+        <v>8.034326999999999</v>
       </c>
       <c r="H31">
-        <v>7.04873482937959</v>
+        <v>24.102981</v>
       </c>
       <c r="I31">
-        <v>0.1724499079737329</v>
+        <v>0.1830731967215145</v>
       </c>
       <c r="J31">
-        <v>0.1724499079737329</v>
+        <v>0.2054755864197981</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N31">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O31">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P31">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q31">
-        <v>65.79874386499351</v>
+        <v>77.4443442176775</v>
       </c>
       <c r="R31">
-        <v>65.79874386499351</v>
+        <v>464.666065306065</v>
       </c>
       <c r="S31">
-        <v>0.02653279400098785</v>
+        <v>0.02824130933516736</v>
       </c>
       <c r="T31">
-        <v>0.02653279400098785</v>
+        <v>0.02514871007313165</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H32">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I32">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J32">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.1356485085001</v>
+        <v>20.305315</v>
       </c>
       <c r="N32">
-        <v>20.1356485085001</v>
+        <v>40.61063</v>
       </c>
       <c r="O32">
-        <v>0.3318785697900667</v>
+        <v>0.3249597642811566</v>
       </c>
       <c r="P32">
-        <v>0.3318785697900667</v>
+        <v>0.2578249925194772</v>
       </c>
       <c r="Q32">
-        <v>122.5623226697183</v>
+        <v>137.5243552175325</v>
       </c>
       <c r="R32">
-        <v>122.5623226697183</v>
+        <v>550.09742087013</v>
       </c>
       <c r="S32">
-        <v>0.04942223314096332</v>
+        <v>0.05015043895137326</v>
       </c>
       <c r="T32">
-        <v>0.04942223314096332</v>
+        <v>0.02977243569600478</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H33">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I33">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J33">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.4765027454472</v>
+        <v>3.588822666666667</v>
       </c>
       <c r="N33">
-        <v>3.4765027454472</v>
+        <v>10.766468</v>
       </c>
       <c r="O33">
-        <v>0.0573002035938003</v>
+        <v>0.0574343696616808</v>
       </c>
       <c r="P33">
-        <v>0.0573002035938003</v>
+        <v>0.06835315117153294</v>
       </c>
       <c r="Q33">
-        <v>21.16089040140881</v>
+        <v>24.306469671778</v>
       </c>
       <c r="R33">
-        <v>21.16089040140881</v>
+        <v>145.838818030668</v>
       </c>
       <c r="S33">
-        <v>0.008532952347085301</v>
+        <v>0.008863739964239475</v>
       </c>
       <c r="T33">
-        <v>0.008532952347085301</v>
+        <v>0.007893105233853628</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H34">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I34">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J34">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.34151122442368</v>
+        <v>8.306868</v>
       </c>
       <c r="N34">
-        <v>7.34151122442368</v>
+        <v>24.920604</v>
       </c>
       <c r="O34">
-        <v>0.1210038129256631</v>
+        <v>0.1329404575695912</v>
       </c>
       <c r="P34">
-        <v>0.1210038129256631</v>
+        <v>0.1582136140188136</v>
       </c>
       <c r="Q34">
-        <v>44.68655018443204</v>
+        <v>56.260967415534</v>
       </c>
       <c r="R34">
-        <v>44.68655018443204</v>
+        <v>337.565804493204</v>
       </c>
       <c r="S34">
-        <v>0.01801947819993475</v>
+        <v>0.02051645475635892</v>
       </c>
       <c r="T34">
-        <v>0.01801947819993475</v>
+        <v>0.01826977518190679</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H35">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I35">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J35">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.6869250897619</v>
+        <v>10.71009166666667</v>
       </c>
       <c r="N35">
-        <v>10.6869250897619</v>
+        <v>32.130275</v>
       </c>
       <c r="O35">
-        <v>0.1761433912966112</v>
+        <v>0.1714008801847979</v>
       </c>
       <c r="P35">
-        <v>0.1761433912966112</v>
+        <v>0.203985703041882</v>
       </c>
       <c r="Q35">
-        <v>65.04952451099744</v>
+        <v>72.53758194733749</v>
       </c>
       <c r="R35">
-        <v>65.04952451099744</v>
+        <v>435.225491684025</v>
       </c>
       <c r="S35">
-        <v>0.02623067755296084</v>
+        <v>0.02645198059191784</v>
       </c>
       <c r="T35">
-        <v>0.02623067755296084</v>
+        <v>0.02355532397139493</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H36">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I36">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J36">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.696316683033899</v>
+        <v>9.935348333333332</v>
       </c>
       <c r="N36">
-        <v>9.696316683033899</v>
+        <v>29.806045</v>
       </c>
       <c r="O36">
-        <v>0.1598160452412745</v>
+        <v>0.1590021357684519</v>
       </c>
       <c r="P36">
-        <v>0.1598160452412745</v>
+        <v>0.1892298476817572</v>
       </c>
       <c r="Q36">
-        <v>59.01985692251724</v>
+        <v>67.29038054338248</v>
       </c>
       <c r="R36">
-        <v>59.01985692251724</v>
+        <v>403.7422832602949</v>
       </c>
       <c r="S36">
-        <v>0.02379926444957645</v>
+        <v>0.0245385053150597</v>
       </c>
       <c r="T36">
-        <v>0.02379926444957645</v>
+        <v>0.02185138615467735</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.08683264499674</v>
+        <v>6.7728255</v>
       </c>
       <c r="H37">
-        <v>6.08683264499674</v>
+        <v>13.545651</v>
       </c>
       <c r="I37">
-        <v>0.1489166148095247</v>
+        <v>0.1543281490935071</v>
       </c>
       <c r="J37">
-        <v>0.1489166148095247</v>
+        <v>0.1154753672445298</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.334830357178429</v>
+        <v>9.6391825</v>
       </c>
       <c r="N37">
-        <v>9.334830357178429</v>
+        <v>19.278365</v>
       </c>
       <c r="O37">
-        <v>0.1538579771525842</v>
+        <v>0.1542623925343217</v>
       </c>
       <c r="P37">
-        <v>0.1538579771525842</v>
+        <v>0.1223926915665369</v>
       </c>
       <c r="Q37">
-        <v>56.81955015358024</v>
+        <v>65.28450103515375</v>
       </c>
       <c r="R37">
-        <v>56.81955015358024</v>
+        <v>261.138004140615</v>
       </c>
       <c r="S37">
-        <v>0.02291200911900403</v>
+        <v>0.02380702951455791</v>
       </c>
       <c r="T37">
-        <v>0.02291200911900403</v>
+        <v>0.01413334100669232</v>
       </c>
     </row>
   </sheetData>
